--- a/mainexcel/squad4/МРК-23-1.xlsx
+++ b/mainexcel/squad4/МРК-23-1.xlsx
@@ -193,6 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -706,23 +707,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.140625"/>
+    <col min="4" max="4" customWidth="true" width="19.0"/>
+    <col min="5" max="5" customWidth="true" style="2" width="15.5703125"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="18.5703125"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.85546875"/>
+    <col min="10" max="10" customWidth="true" width="18.85546875"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.28515625"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="18.42578125"/>
+    <col min="15" max="15" customWidth="true" style="2" width="16.42578125"/>
+    <col min="16" max="16" customWidth="true" width="19.5703125"/>
+    <col min="17" max="17" customWidth="true" style="2" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1793,138 +1794,94 @@
   </sheetData>
   <mergeCells count="133">
     <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="M36:M37"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M32:M33"/>
     <mergeCell ref="N34:Q34"/>
     <mergeCell ref="N35:P35"/>
-    <mergeCell ref="M34:M35"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="G36:G37"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G38:G39"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A38:A39"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="G32:G33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="G34:G35"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A34:A35"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N26:P26"/>
-    <mergeCell ref="M25:M26"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="M27:M28"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G27:G28"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G29:G30"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="M22:Q22"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="M23:M24"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="M13:M14"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
